--- a/appGreece/config/tables/authorizations/forms/authorizations/authorizations.xlsx
+++ b/appGreece/config/tables/authorizations/forms/authorizations/authorizations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/appGreece/config/tables/authorizations/forms/authorizations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="19640" yWindow="5140" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -15,18 +20,18 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>type</t>
   </si>
@@ -184,9 +189,6 @@
     <t>authorization_details</t>
   </si>
   <si>
-    <t>Authorization Details</t>
-  </si>
-  <si>
     <t>choose_authorization</t>
   </si>
   <si>
@@ -197,13 +199,49 @@
   </si>
   <si>
     <t>Choose a Distribution</t>
+  </si>
+  <si>
+    <t>Distribution Details</t>
+  </si>
+  <si>
+    <t>تفاصيل التوزيع</t>
+  </si>
+  <si>
+    <t>جزییات توزیع</t>
+  </si>
+  <si>
+    <t>Detalles de distribución</t>
+  </si>
+  <si>
+    <t>اختيار توزيعا</t>
+  </si>
+  <si>
+    <t>انتخاب توزیع</t>
+  </si>
+  <si>
+    <t>Elegir una distribución</t>
+  </si>
+  <si>
+    <t>text.arabic</t>
+  </si>
+  <si>
+    <t>text.farsi</t>
+  </si>
+  <si>
+    <t>Λεπτομέρειες διανομής</t>
+  </si>
+  <si>
+    <t>Επιλέξτε διανομή</t>
+  </si>
+  <si>
+    <t>text.greek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +291,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -366,7 +411,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -391,6 +436,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -737,13 +783,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24">
+    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -759,7 +805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24">
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -767,7 +813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24">
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -775,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24">
+    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -783,7 +829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24">
+    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -791,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24">
+    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
@@ -799,7 +845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24">
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -807,7 +853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24">
+    <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>2</v>
       </c>
@@ -815,7 +861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24">
+    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>2</v>
       </c>
@@ -823,7 +869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24">
+    <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -831,7 +877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24">
+    <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
@@ -842,63 +888,86 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="2" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
+      <c r="B3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -910,13 +979,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -927,7 +996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -936,7 +1005,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="24">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -945,7 +1014,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="24">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -954,7 +1023,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="24">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -963,7 +1032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -974,11 +1043,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -990,9 +1054,9 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="24">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +1080,7 @@
       </c>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>18</v>
       </c>
@@ -1026,11 +1090,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1042,9 +1101,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +1145,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>2</v>
@@ -1095,7 +1154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>36</v>
       </c>
@@ -1149,10 +1208,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>